--- a/7/2/2/2/2/2/Otros intermediarios y auxiliares financieros 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/2/2/Otros intermediarios y auxiliares financieros 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Serie</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK74"/>
+  <dimension ref="A1:AK75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8961,19 +8964,19 @@
         <v>109</v>
       </c>
       <c r="B74">
-        <v>5012</v>
+        <v>4923</v>
       </c>
       <c r="C74">
-        <v>-555</v>
+        <v>-567</v>
       </c>
       <c r="D74">
         <v>-525</v>
       </c>
       <c r="E74">
-        <v>-30</v>
+        <v>-42</v>
       </c>
       <c r="F74">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G74">
         <v>194</v>
@@ -8985,37 +8988,37 @@
         <v>-2</v>
       </c>
       <c r="J74">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K74">
         <v>-5</v>
       </c>
       <c r="L74">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M74">
-        <v>2556</v>
+        <v>2495</v>
       </c>
       <c r="N74">
-        <v>1184</v>
+        <v>1125</v>
       </c>
       <c r="O74">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P74">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="Q74">
         <v>-89</v>
       </c>
       <c r="R74">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="S74">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="T74">
-        <v>4800</v>
+        <v>4682</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -9024,49 +9027,162 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="X74">
         <v>-32</v>
       </c>
       <c r="Y74">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Z74">
-        <v>-156</v>
+        <v>-166</v>
       </c>
       <c r="AA74">
         <v>21</v>
       </c>
       <c r="AB74">
-        <v>-177</v>
+        <v>-187</v>
       </c>
       <c r="AC74">
-        <v>4160</v>
+        <v>4184</v>
       </c>
       <c r="AD74">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AE74">
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="AG74">
-        <v>526</v>
+        <v>390</v>
       </c>
       <c r="AH74">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="AI74">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="AJ74">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AK74">
         <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37">
+      <c r="A75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75">
+        <v>388</v>
+      </c>
+      <c r="C75">
+        <v>865</v>
+      </c>
+      <c r="D75">
+        <v>525</v>
+      </c>
+      <c r="E75">
+        <v>340</v>
+      </c>
+      <c r="F75">
+        <v>-1332</v>
+      </c>
+      <c r="G75">
+        <v>-40</v>
+      </c>
+      <c r="H75">
+        <v>-1292</v>
+      </c>
+      <c r="I75">
+        <v>-7</v>
+      </c>
+      <c r="J75">
+        <v>-13</v>
+      </c>
+      <c r="K75">
+        <v>-6</v>
+      </c>
+      <c r="L75">
+        <v>-7</v>
+      </c>
+      <c r="M75">
+        <v>593</v>
+      </c>
+      <c r="N75">
+        <v>-24</v>
+      </c>
+      <c r="O75">
+        <v>-110</v>
+      </c>
+      <c r="P75">
+        <v>727</v>
+      </c>
+      <c r="Q75">
+        <v>-77</v>
+      </c>
+      <c r="R75">
+        <v>359</v>
+      </c>
+      <c r="S75">
+        <v>-136</v>
+      </c>
+      <c r="T75">
+        <v>525</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>234</v>
+      </c>
+      <c r="X75">
+        <v>-105</v>
+      </c>
+      <c r="Y75">
+        <v>339</v>
+      </c>
+      <c r="Z75">
+        <v>-58</v>
+      </c>
+      <c r="AA75">
+        <v>249</v>
+      </c>
+      <c r="AB75">
+        <v>-307</v>
+      </c>
+      <c r="AC75">
+        <v>-286</v>
+      </c>
+      <c r="AD75">
+        <v>241</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>-527</v>
+      </c>
+      <c r="AG75">
+        <v>635</v>
+      </c>
+      <c r="AH75">
+        <v>456</v>
+      </c>
+      <c r="AI75">
+        <v>406</v>
+      </c>
+      <c r="AJ75">
+        <v>156</v>
+      </c>
+      <c r="AK75">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
